--- a/TestData/FCCB_HBCL_data.xlsx
+++ b/TestData/FCCB_HBCL_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CFB8F1-A36A-44EB-AE1B-115DCACD434F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9109CA38-BE36-48C5-A93A-53A99241255E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="2160" windowWidth="19080" windowHeight="11925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>06201890101202000000000182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,41 +532,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
-  <dimension ref="A1:CA4"/>
+  <dimension ref="A1:CB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="14.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="79" width="8.75" style="1"/>
-    <col min="80" max="16384" width="8.75" style="1" collapsed="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="19.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="14.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="80" width="8.75" style="1"/>
+    <col min="81" max="16384" width="8.75" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
+    <row r="1" spans="1:16">
+      <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -566,88 +573,94 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:16">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -660,14 +673,15 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
